--- a/data/GEP00010/GEP000010V3.xlsx
+++ b/data/GEP00010/GEP000010V3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="13" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="285">
   <si>
     <t>description</t>
   </si>
@@ -1445,6 +1445,12 @@
       </rPr>
       <t>Guide@name</t>
     </r>
+  </si>
+  <si>
+    <t>amplicon_name</t>
+  </si>
+  <si>
+    <t>FTO.9.in</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1787,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1811,6 +1817,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="199">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2013,7 +2020,1407 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="131">
+  <dxfs count="133">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2307,19 +3714,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2385,6 +3779,19 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2806,1376 +4213,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -4232,9 +4269,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table215" displayName="Table215" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="45"/>
-    <tableColumn id="2" name="Column names" dataDxfId="44"/>
-    <tableColumn id="3" name="Description" dataDxfId="43"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="132"/>
+    <tableColumn id="2" name="Column names" dataDxfId="131"/>
+    <tableColumn id="3" name="Description" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4243,9 +4280,9 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table5027" displayName="Table5027" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="8" dataDxfId="7"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="6" dataDxfId="5"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="4" dataDxfId="3"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="95" dataDxfId="94"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="93" dataDxfId="92"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="91" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4254,117 +4291,118 @@
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table1228" displayName="Table1228" ref="A73:C76" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="2"/>
-    <tableColumn id="2" name="Column names" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="89"/>
+    <tableColumn id="2" name="Column names" dataDxfId="88"/>
+    <tableColumn id="3" name="Description" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="128"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="127"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="126"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="125"/>
-    <tableColumn id="5" name="target_start" dataDxfId="124"/>
-    <tableColumn id="6" name="target_end" dataDxfId="123"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="122"/>
+    <tableColumn id="1" name="target_name" dataDxfId="84"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="83"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="82"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="81"/>
+    <tableColumn id="5" name="target_start" dataDxfId="80"/>
+    <tableColumn id="6" name="target_end" dataDxfId="79"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="119"/>
+    <tableColumn id="1" name="target_description" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="116"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="115"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="114"/>
+    <tableColumn id="1" name="target_name" dataDxfId="72"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="71"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="111"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="110"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="109"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="108"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="67"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="66"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="65"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
-  <tableColumns count="13">
-    <tableColumn id="1" name="guide_name" dataDxfId="105"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="104"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="103"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="102"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="101"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="100"/>
-    <tableColumn id="7" name="chrom" dataDxfId="99"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="98"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="97"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="96"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="95"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="94"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:N9" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <tableColumns count="14">
+    <tableColumn id="16" name="amplicon_name" dataDxfId="1"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="61"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="60"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="59"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="58"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="57"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="56"/>
+    <tableColumn id="7" name="chrom" dataDxfId="55"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="54"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="53"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="52"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="51"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="50"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:P9" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="90"/>
-    <tableColumn id="2" name="description" dataDxfId="89"/>
+    <tableColumn id="1" name="score" dataDxfId="46"/>
+    <tableColumn id="2" name="description" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="86"/>
-    <tableColumn id="2" name="well_position" dataDxfId="85"/>
-    <tableColumn id="6" name="guide_name" dataDxfId="84"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="83"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="42"/>
+    <tableColumn id="2" name="well_position" dataDxfId="41"/>
+    <tableColumn id="6" name="guide_name" dataDxfId="40"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="80"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="79"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="78"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="77"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="76"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="75"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="74"/>
-    <tableColumn id="8" name="content_type" dataDxfId="73"/>
-    <tableColumn id="9" name="is_control" dataDxfId="72"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="71"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="36"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="35"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="34"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="33"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="32"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="31"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="30"/>
+    <tableColumn id="8" name="content_type" dataDxfId="29"/>
+    <tableColumn id="9" name="is_control" dataDxfId="28"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4373,58 +4411,59 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table316" displayName="Table316" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="42"/>
-    <tableColumn id="2" name="Column names" dataDxfId="41"/>
-    <tableColumn id="3" name="Description" dataDxfId="40"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="129"/>
+    <tableColumn id="2" name="Column names" dataDxfId="128"/>
+    <tableColumn id="3" name="Description" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="68"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="67"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="66"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="65"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="24"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="23"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="22"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="62"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="61"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="60"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="59"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="18"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="17"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="16"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1114" displayName="Table1114" ref="A1:B9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <tableColumns count="2">
-    <tableColumn id="1" name="sequence_name" dataDxfId="49" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="sequence" dataDxfId="48" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1114" displayName="Table1114" ref="A1:C9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="3">
+    <tableColumn id="3" name="amplicon_name" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="sequence_name" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="sequence" dataDxfId="11" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_genome" dataDxfId="56"/>
-    <tableColumn id="2" name="strand" dataDxfId="55"/>
-    <tableColumn id="3" name="dna_feature" dataDxfId="54"/>
-    <tableColumn id="4" name="is_true_or_false" dataDxfId="53"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="52"/>
-    <tableColumn id="6" name="content_type" dataDxfId="51"/>
-    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="50"/>
+    <tableColumn id="1" name="target_genome" dataDxfId="8"/>
+    <tableColumn id="2" name="strand" dataDxfId="7"/>
+    <tableColumn id="3" name="dna_feature" dataDxfId="6"/>
+    <tableColumn id="4" name="is_true_or_false" dataDxfId="5"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="4"/>
+    <tableColumn id="6" name="content_type" dataDxfId="3"/>
+    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4433,9 +4472,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table417" displayName="Table417" ref="A67:C72" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="39"/>
-    <tableColumn id="2" name="Column names" dataDxfId="38"/>
-    <tableColumn id="3" name="Description" dataDxfId="37"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="126"/>
+    <tableColumn id="2" name="Column names" dataDxfId="125"/>
+    <tableColumn id="3" name="Description" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4444,9 +4483,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table518" displayName="Table518" ref="A23:C36" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="36"/>
-    <tableColumn id="2" name="Column names" dataDxfId="35"/>
-    <tableColumn id="3" name="Description" dataDxfId="34"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="123"/>
+    <tableColumn id="2" name="Column names" dataDxfId="122"/>
+    <tableColumn id="3" name="Description" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4455,9 +4494,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table620" displayName="Table620" ref="A39:C43" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="33"/>
-    <tableColumn id="2" name="Column names" dataDxfId="32"/>
-    <tableColumn id="3" name="Description" dataDxfId="31"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="120"/>
+    <tableColumn id="2" name="Column names" dataDxfId="119"/>
+    <tableColumn id="3" name="Description" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4466,9 +4505,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table723" displayName="Table723" ref="A61:C66" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="30"/>
-    <tableColumn id="2" name="Column names" dataDxfId="29"/>
-    <tableColumn id="3" name="Description" dataDxfId="28"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="117"/>
+    <tableColumn id="2" name="Column names" dataDxfId="116"/>
+    <tableColumn id="3" name="Description" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4477,20 +4516,20 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table4724" displayName="Table4724" ref="A44:C60" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="27" dataDxfId="26"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="25" dataDxfId="24"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="23" dataDxfId="22"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="114" dataDxfId="113"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="112" dataDxfId="111"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="110" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table4825" displayName="Table4825" ref="A37:C38" headerRowCount="0" totalsRowShown="0" dataDxfId="15" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table4825" displayName="Table4825" ref="A37:C38" headerRowCount="0" totalsRowShown="0" dataDxfId="108" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="21" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="19" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="17" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="107" dataDxfId="106" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="105" dataDxfId="104" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="103" dataDxfId="102" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4499,9 +4538,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table4926" displayName="Table4926" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="14" dataDxfId="13"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="12" dataDxfId="11"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="101" dataDxfId="100"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="99" dataDxfId="98"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="97" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4834,7 +4873,7 @@
   </sheetPr>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -5500,7 +5539,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5716,21 +5755,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="31.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="14.83203125" style="2" customWidth="1"/>
     <col min="19" max="19" width="10.33203125" style="2" customWidth="1"/>
     <col min="20" max="16384" width="8.83203125" style="2"/>
@@ -5738,92 +5776,98 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>53704225</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>16</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>53704130</v>
       </c>
-      <c r="J2" s="14">
+      <c r="K2" s="14">
         <v>53704148</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="L2" s="14">
+      <c r="M2" s="14">
         <v>53704291</v>
       </c>
-      <c r="M2" s="14">
+      <c r="N2" s="14">
         <v>53704310</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5841,6 +5885,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="3"/>
@@ -5891,42 +5936,30 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F11 F14:F1048576</xm:sqref>
+          <xm:sqref>F14:F1048576 G2:G9 F10:F11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D11 D14:D1048576</xm:sqref>
+          <xm:sqref>D14:D1048576 E2:E9 D10:D11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E11 E14:E1048576</xm:sqref>
+          <xm:sqref>E14:E1048576 F2:F9 E10:E11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Menus!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Menus!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Menus!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G13</xm:sqref>
+          <xm:sqref>D13 F13:G13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7921,73 +7954,91 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="136.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="129.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="21"/>
       <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="21"/>
       <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="21"/>
       <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="21"/>
       <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
